--- a/trabalho1bbb.gu.xlsx
+++ b/trabalho1bbb.gu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05d8558370f01170/Faculdades/Insper/Semestre 2/Ciencia dos dados/P1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viniz\GitRepositories\Projeto-1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707BCAD-E6AA-463A-8B5C-96E3EEBC9900}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D24AC3-16A3-4963-B4BE-B74CB97C3655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="965">
   <si>
     <t>Treinamento</t>
   </si>
@@ -4209,7 +4209,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4226,7 +4226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4548,13 +4548,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A502" sqref="A502"/>
+    <sheetView tabSelected="1" topLeftCell="A468" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F501" sqref="F501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="233.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="136" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="2" customWidth="1"/>
@@ -10658,6 +10658,9 @@
       <c r="B492" s="2">
         <v>1</v>
       </c>
+      <c r="F492" s="2" t="s">
+        <v>959</v>
+      </c>
       <c r="G492" s="2"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
@@ -10715,6 +10718,9 @@
       <c r="B497" s="2">
         <v>1</v>
       </c>
+      <c r="F497" s="2" t="s">
+        <v>959</v>
+      </c>
       <c r="G497" s="2"/>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -10736,6 +10742,9 @@
       <c r="B499" s="2">
         <v>1</v>
       </c>
+      <c r="C499" s="2" t="s">
+        <v>959</v>
+      </c>
       <c r="G499" s="2"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
@@ -10760,6 +10769,7 @@
       <c r="D501" s="2" t="s">
         <v>959</v>
       </c>
+      <c r="F501" s="7"/>
       <c r="G501" s="2"/>
     </row>
   </sheetData>
@@ -10770,6 +10780,7 @@
     <hyperlink ref="A480" r:id="rId1" location="boninho%20%20#bbb21%20#bigbrotherbrasil" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17770,9 +17781,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17934,26 +17948,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3720EEAF-79EA-42EA-988F-212BD62A8AC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{607A4054-761D-4B33-9320-7655D7D27F3D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="48862766-63ef-4678-be2c-e63663596ac4"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17977,9 +17980,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{607A4054-761D-4B33-9320-7655D7D27F3D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3720EEAF-79EA-42EA-988F-212BD62A8AC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="48862766-63ef-4678-be2c-e63663596ac4"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trabalho1bbb.gu.xlsx
+++ b/trabalho1bbb.gu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viniz\GitRepositories\Projeto-1-CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05d8558370f01170/Faculdades/Insper/Semestre 2/Ciencia dos dados/P1/Projeto-1-CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D24AC3-16A3-4963-B4BE-B74CB97C3655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{76D24AC3-16A3-4963-B4BE-B74CB97C3655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{10575DA3-DE19-4A6B-B794-8342D5C971B1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -4209,7 +4209,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4226,7 +4226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4546,10 +4546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G501"/>
+  <dimension ref="A1:G657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A468" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F501" sqref="F501"/>
+    <sheetView topLeftCell="A468" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A502" sqref="A502:XFD657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10771,6 +10771,2390 @@
       </c>
       <c r="F501" s="7"/>
       <c r="G501" s="2"/>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A502" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D502" s="7"/>
+      <c r="E502" s="7"/>
+      <c r="F502" s="7"/>
+      <c r="G502" s="7"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A503" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+      <c r="C503" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D503" s="7"/>
+      <c r="E503" s="7"/>
+      <c r="F503" s="7"/>
+      <c r="G503" s="7"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A504" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+      <c r="C504" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D504" s="7"/>
+      <c r="E504" s="7"/>
+      <c r="F504" s="7"/>
+      <c r="G504" s="7"/>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A505" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B505">
+        <v>1</v>
+      </c>
+      <c r="C505" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D505" s="7"/>
+      <c r="E505" s="7"/>
+      <c r="F505" s="7"/>
+      <c r="G505" s="7"/>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A506" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+      <c r="C506" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D506" s="7"/>
+      <c r="E506" s="7"/>
+      <c r="F506" s="7"/>
+      <c r="G506" s="7"/>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="B507">
+        <v>1</v>
+      </c>
+      <c r="C507" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D507" s="7"/>
+      <c r="E507" s="7"/>
+      <c r="F507" s="7"/>
+      <c r="G507" s="7"/>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A508" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+      <c r="C508" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D508" s="7"/>
+      <c r="E508" s="7"/>
+      <c r="F508" s="7"/>
+      <c r="G508" s="7"/>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A509" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+      <c r="C509" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D509" s="7"/>
+      <c r="E509" s="7"/>
+      <c r="F509" s="7"/>
+      <c r="G509" s="7"/>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A510" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+      <c r="C510" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D510" s="7"/>
+      <c r="E510" s="7"/>
+      <c r="F510" s="7"/>
+      <c r="G510" s="7"/>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A511" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+      <c r="C511" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D511" s="7"/>
+      <c r="E511" s="7"/>
+      <c r="F511" s="7"/>
+      <c r="G511" s="7"/>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+      <c r="C512" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D512" s="7"/>
+      <c r="E512" s="7"/>
+      <c r="F512" s="7"/>
+      <c r="G512" s="7"/>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A513" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B513">
+        <v>1</v>
+      </c>
+      <c r="C513" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D513" s="7"/>
+      <c r="E513" s="7"/>
+      <c r="F513" s="7"/>
+      <c r="G513" s="7"/>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+      <c r="C514" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D514" s="7"/>
+      <c r="E514" s="7"/>
+      <c r="F514" s="7"/>
+      <c r="G514" s="7"/>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A515" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B515">
+        <v>1</v>
+      </c>
+      <c r="C515" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D515" s="7"/>
+      <c r="E515" s="7"/>
+      <c r="F515" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="G515" s="7"/>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A516" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+      <c r="C516" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D516" s="7"/>
+      <c r="E516" s="7"/>
+      <c r="F516" s="7"/>
+      <c r="G516" s="7"/>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A517" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B517">
+        <v>1</v>
+      </c>
+      <c r="C517" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D517" s="7"/>
+      <c r="E517" s="7"/>
+      <c r="F517" s="7"/>
+      <c r="G517" s="7"/>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A518" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+      <c r="C518" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D518" s="7"/>
+      <c r="E518" s="7"/>
+      <c r="F518" s="7"/>
+      <c r="G518" s="7"/>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A519" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B519">
+        <v>1</v>
+      </c>
+      <c r="C519" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D519" s="7"/>
+      <c r="E519" s="7"/>
+      <c r="F519" s="7"/>
+      <c r="G519" s="7"/>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A520" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="B520">
+        <v>1</v>
+      </c>
+      <c r="C520" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D520" s="7"/>
+      <c r="E520" s="7"/>
+      <c r="F520" s="7"/>
+      <c r="G520" s="7"/>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A521" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="B521">
+        <v>1</v>
+      </c>
+      <c r="C521" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D521" s="7"/>
+      <c r="E521" s="7"/>
+      <c r="F521" s="7"/>
+      <c r="G521" s="7"/>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A522" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="B522">
+        <v>1</v>
+      </c>
+      <c r="C522" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D522" s="7"/>
+      <c r="E522" s="7"/>
+      <c r="F522" s="7"/>
+      <c r="G522" s="7"/>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A523" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="B523">
+        <v>1</v>
+      </c>
+      <c r="C523" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D523" s="7"/>
+      <c r="E523" s="7"/>
+      <c r="F523" s="7"/>
+      <c r="G523" s="7"/>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A524" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="B524">
+        <v>1</v>
+      </c>
+      <c r="C524" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D524" s="7"/>
+      <c r="E524" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F524" s="7"/>
+      <c r="G524" s="7"/>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A525" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B525">
+        <v>1</v>
+      </c>
+      <c r="C525" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D525" s="7"/>
+      <c r="E525" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F525" s="7"/>
+      <c r="G525" s="7"/>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A526" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="B526">
+        <v>1</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D526" s="7"/>
+      <c r="E526" s="7"/>
+      <c r="F526" s="7"/>
+      <c r="G526" s="7"/>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A527" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="B527">
+        <v>1</v>
+      </c>
+      <c r="C527" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D527" s="7"/>
+      <c r="E527" s="7"/>
+      <c r="F527" s="7"/>
+      <c r="G527" s="7"/>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A528" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+      <c r="C528" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D528" s="7"/>
+      <c r="E528" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F528" s="7"/>
+      <c r="G528" s="7"/>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A529" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="B529">
+        <v>1</v>
+      </c>
+      <c r="C529" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D529" s="7"/>
+      <c r="E529" s="7"/>
+      <c r="F529" s="7"/>
+      <c r="G529" s="7"/>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A530" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+      <c r="C530" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D530" s="7"/>
+      <c r="E530" s="7"/>
+      <c r="F530" s="7"/>
+      <c r="G530" s="7"/>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A531" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B531">
+        <v>1</v>
+      </c>
+      <c r="C531" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D531" s="7"/>
+      <c r="E531" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F531" s="7"/>
+      <c r="G531" s="7"/>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A532" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="B532">
+        <v>1</v>
+      </c>
+      <c r="C532" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D532" s="7"/>
+      <c r="E532" s="7"/>
+      <c r="F532" s="7"/>
+      <c r="G532" s="7"/>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A533" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
+      <c r="C533" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D533" s="7"/>
+      <c r="E533" s="7"/>
+      <c r="F533" s="7"/>
+      <c r="G533" s="7"/>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A534" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+      <c r="C534" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D534" s="7"/>
+      <c r="E534" s="7"/>
+      <c r="F534" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="G534" s="7"/>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A535" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="B535">
+        <v>1</v>
+      </c>
+      <c r="C535" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D535" s="7"/>
+      <c r="E535" s="7"/>
+      <c r="F535" s="7"/>
+      <c r="G535" s="7"/>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A536" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+      <c r="C536" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D536" s="7"/>
+      <c r="E536" s="7"/>
+      <c r="F536" s="7"/>
+      <c r="G536" s="7"/>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A537" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="B537">
+        <v>1</v>
+      </c>
+      <c r="C537" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D537" s="7"/>
+      <c r="E537" s="7"/>
+      <c r="F537" s="7"/>
+      <c r="G537" s="7"/>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+      <c r="C538" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D538" s="7"/>
+      <c r="E538" s="7"/>
+      <c r="F538" s="7"/>
+      <c r="G538" s="7"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="B539">
+        <v>1</v>
+      </c>
+      <c r="C539" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D539" s="7"/>
+      <c r="E539" s="7"/>
+      <c r="F539" s="7"/>
+      <c r="G539" s="7"/>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A540" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
+      </c>
+      <c r="C540" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D540" s="7"/>
+      <c r="E540" s="7"/>
+      <c r="F540" s="7"/>
+      <c r="G540" s="7"/>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A541" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B541">
+        <v>1</v>
+      </c>
+      <c r="C541" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D541" s="7"/>
+      <c r="E541" s="7"/>
+      <c r="F541" s="7"/>
+      <c r="G541" s="7"/>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A542" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+      <c r="C542" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D542" s="7"/>
+      <c r="E542" s="7"/>
+      <c r="F542" s="7"/>
+      <c r="G542" s="7"/>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A543" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="B543">
+        <v>1</v>
+      </c>
+      <c r="C543" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D543" s="7"/>
+      <c r="E543" s="7"/>
+      <c r="F543" s="7"/>
+      <c r="G543" s="7"/>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A544" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+      <c r="C544" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D544" s="7"/>
+      <c r="E544" s="7"/>
+      <c r="F544" s="7"/>
+      <c r="G544" s="7"/>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A545" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="B545">
+        <v>1</v>
+      </c>
+      <c r="C545" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D545" s="7"/>
+      <c r="E545" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F545" s="7"/>
+      <c r="G545" s="7"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A546" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="B546">
+        <v>1</v>
+      </c>
+      <c r="C546" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D546" s="7"/>
+      <c r="E546" s="7"/>
+      <c r="F546" s="7"/>
+      <c r="G546" s="7"/>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A547" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="B547">
+        <v>1</v>
+      </c>
+      <c r="C547" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D547" s="7"/>
+      <c r="E547" s="7"/>
+      <c r="F547" s="7"/>
+      <c r="G547" s="7"/>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A548" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B548">
+        <v>1</v>
+      </c>
+      <c r="C548" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D548" s="7"/>
+      <c r="E548" s="7"/>
+      <c r="F548" s="7"/>
+      <c r="G548" s="7"/>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A549" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="B549">
+        <v>1</v>
+      </c>
+      <c r="C549" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D549" s="7"/>
+      <c r="E549" s="7"/>
+      <c r="F549" s="7"/>
+      <c r="G549" s="7"/>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A550" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
+      <c r="C550" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D550" s="7"/>
+      <c r="E550" s="7"/>
+      <c r="F550" s="7"/>
+      <c r="G550" s="7"/>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A551" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="B551">
+        <v>1</v>
+      </c>
+      <c r="C551" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D551" s="7"/>
+      <c r="E551" s="7"/>
+      <c r="F551" s="7"/>
+      <c r="G551" s="7"/>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A552" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="B552">
+        <v>1</v>
+      </c>
+      <c r="C552" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D552" s="7"/>
+      <c r="E552" s="7"/>
+      <c r="F552" s="7"/>
+      <c r="G552" s="7"/>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A553" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="B553">
+        <v>1</v>
+      </c>
+      <c r="C553" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D553" s="7"/>
+      <c r="E553" s="7"/>
+      <c r="F553" s="7"/>
+      <c r="G553" s="7"/>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A554" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+      <c r="C554" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D554" s="7"/>
+      <c r="E554" s="7"/>
+      <c r="F554" s="7"/>
+      <c r="G554" s="7"/>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A555" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="B555">
+        <v>1</v>
+      </c>
+      <c r="C555" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D555" s="7"/>
+      <c r="E555" s="7"/>
+      <c r="F555" s="7"/>
+      <c r="G555" s="7"/>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A556" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+      <c r="C556" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D556" s="7"/>
+      <c r="E556" s="7"/>
+      <c r="F556" s="7"/>
+      <c r="G556" s="7"/>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A557" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B557">
+        <v>1</v>
+      </c>
+      <c r="C557" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D557" s="7"/>
+      <c r="E557" s="7"/>
+      <c r="F557" s="7"/>
+      <c r="G557" s="7"/>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A558" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="B558">
+        <v>1</v>
+      </c>
+      <c r="C558" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D558" s="7"/>
+      <c r="E558" s="7"/>
+      <c r="F558" s="7"/>
+      <c r="G558" s="7"/>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A559" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="B559">
+        <v>1</v>
+      </c>
+      <c r="C559" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D559" s="7"/>
+      <c r="E559" s="7"/>
+      <c r="F559" s="7"/>
+      <c r="G559" s="7"/>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A560" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="B560">
+        <v>1</v>
+      </c>
+      <c r="C560" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D560" s="7"/>
+      <c r="E560" s="7"/>
+      <c r="F560" s="7"/>
+      <c r="G560" s="7"/>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A561" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="B561">
+        <v>1</v>
+      </c>
+      <c r="C561" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D561" s="7"/>
+      <c r="E561" s="7"/>
+      <c r="F561" s="7"/>
+      <c r="G561" s="7"/>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A562" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
+      </c>
+      <c r="C562" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D562" s="7"/>
+      <c r="E562" s="7"/>
+      <c r="F562" s="7"/>
+      <c r="G562" s="7"/>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A563" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="B563">
+        <v>1</v>
+      </c>
+      <c r="C563" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D563" s="7"/>
+      <c r="E563" s="7"/>
+      <c r="F563" s="7"/>
+      <c r="G563" s="7"/>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A564" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+      <c r="C564" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D564" s="7"/>
+      <c r="E564" s="7"/>
+      <c r="F564" s="7"/>
+      <c r="G564" s="7"/>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A565" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B565">
+        <v>1</v>
+      </c>
+      <c r="C565" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D565" s="7"/>
+      <c r="E565" s="7"/>
+      <c r="F565" s="7"/>
+      <c r="G565" s="7"/>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A566" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="B566">
+        <v>1</v>
+      </c>
+      <c r="C566" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D566" s="7"/>
+      <c r="E566" s="7"/>
+      <c r="F566" s="7"/>
+      <c r="G566" s="7"/>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A567" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="B567">
+        <v>1</v>
+      </c>
+      <c r="C567" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D567" s="7"/>
+      <c r="E567" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F567" s="7"/>
+      <c r="G567" s="7"/>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A568" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="B568">
+        <v>1</v>
+      </c>
+      <c r="C568" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D568" s="7"/>
+      <c r="E568" s="7"/>
+      <c r="F568" s="7"/>
+      <c r="G568" s="7"/>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A569" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="B569">
+        <v>1</v>
+      </c>
+      <c r="C569" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D569" s="7"/>
+      <c r="E569" s="7"/>
+      <c r="F569" s="7"/>
+      <c r="G569" s="7"/>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A570" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
+      <c r="C570" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D570" s="7"/>
+      <c r="E570" s="7"/>
+      <c r="F570" s="7"/>
+      <c r="G570" s="7"/>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A571" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B571">
+        <v>1</v>
+      </c>
+      <c r="C571" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D571" s="7"/>
+      <c r="E571" s="7"/>
+      <c r="F571" s="7"/>
+      <c r="G571" s="7"/>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A572" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="B572">
+        <v>1</v>
+      </c>
+      <c r="C572" s="7"/>
+      <c r="D572" s="7"/>
+      <c r="E572" s="7"/>
+      <c r="F572" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="G572" s="7"/>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A573" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="B573">
+        <v>1</v>
+      </c>
+      <c r="C573" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D573" s="7"/>
+      <c r="E573" s="7"/>
+      <c r="F573" s="7"/>
+      <c r="G573" s="7"/>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A574" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="B574">
+        <v>1</v>
+      </c>
+      <c r="C574" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D574" s="7"/>
+      <c r="E574" s="7"/>
+      <c r="F574" s="7"/>
+      <c r="G574" s="7"/>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A575" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="B575">
+        <v>1</v>
+      </c>
+      <c r="C575" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D575" s="7"/>
+      <c r="E575" s="7"/>
+      <c r="F575" s="7"/>
+      <c r="G575" s="7"/>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A576" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="B576">
+        <v>1</v>
+      </c>
+      <c r="C576" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D576" s="7"/>
+      <c r="E576" s="7"/>
+      <c r="F576" s="7"/>
+      <c r="G576" s="7"/>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A577" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="B577">
+        <v>1</v>
+      </c>
+      <c r="C577" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D577" s="7"/>
+      <c r="E577" s="7"/>
+      <c r="F577" s="7"/>
+      <c r="G577" s="7"/>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A578" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="B578">
+        <v>1</v>
+      </c>
+      <c r="C578" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D578" s="7"/>
+      <c r="E578" s="7"/>
+      <c r="F578" s="7"/>
+      <c r="G578" s="7"/>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A579" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="B579">
+        <v>1</v>
+      </c>
+      <c r="C579" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D579" s="7"/>
+      <c r="E579" s="7"/>
+      <c r="F579" s="7"/>
+      <c r="G579" s="7"/>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A580" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="B580">
+        <v>1</v>
+      </c>
+      <c r="C580" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D580" s="7"/>
+      <c r="E580" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F580" s="7"/>
+      <c r="G580" s="7"/>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A581" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="B581">
+        <v>1</v>
+      </c>
+      <c r="C581" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D581" s="7"/>
+      <c r="E581" s="7"/>
+      <c r="F581" s="7"/>
+      <c r="G581" s="7"/>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A582" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="B582">
+        <v>1</v>
+      </c>
+      <c r="C582" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D582" s="7"/>
+      <c r="E582" s="7"/>
+      <c r="F582" s="7"/>
+      <c r="G582" s="7"/>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A583" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B583">
+        <v>1</v>
+      </c>
+      <c r="C583" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D583" s="7"/>
+      <c r="E583" s="7"/>
+      <c r="F583" s="7"/>
+      <c r="G583" s="7"/>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A584" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
+      <c r="C584" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D584" s="7"/>
+      <c r="E584" s="7"/>
+      <c r="F584" s="7"/>
+      <c r="G584" s="7"/>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A585" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="B585">
+        <v>1</v>
+      </c>
+      <c r="C585" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D585" s="7"/>
+      <c r="E585" s="7"/>
+      <c r="F585" s="7"/>
+      <c r="G585" s="7"/>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A586" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="B586">
+        <v>1</v>
+      </c>
+      <c r="C586" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D586" s="7"/>
+      <c r="E586" s="7"/>
+      <c r="F586" s="7"/>
+      <c r="G586" s="7"/>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A587" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="B587">
+        <v>1</v>
+      </c>
+      <c r="C587" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D587" s="7"/>
+      <c r="E587" s="7"/>
+      <c r="F587" s="7"/>
+      <c r="G587" s="7"/>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A588" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="B588">
+        <v>1</v>
+      </c>
+      <c r="C588" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D588" s="7"/>
+      <c r="E588" s="7"/>
+      <c r="F588" s="7"/>
+      <c r="G588" s="7"/>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A589" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B589">
+        <v>1</v>
+      </c>
+      <c r="C589" s="7"/>
+      <c r="D589" s="7"/>
+      <c r="E589" s="7"/>
+      <c r="F589" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="G589" s="7"/>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A590" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="B590">
+        <v>1</v>
+      </c>
+      <c r="C590" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D590" s="7"/>
+      <c r="E590" s="7"/>
+      <c r="F590" s="7"/>
+      <c r="G590" s="7"/>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A591" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="B591">
+        <v>1</v>
+      </c>
+      <c r="C591" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D591" s="7"/>
+      <c r="E591" s="7"/>
+      <c r="F591" s="7"/>
+      <c r="G591" s="7"/>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A592" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="B592">
+        <v>1</v>
+      </c>
+      <c r="C592" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D592" s="7"/>
+      <c r="E592" s="7"/>
+      <c r="F592" s="7"/>
+      <c r="G592" s="7"/>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A593" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="B593">
+        <v>1</v>
+      </c>
+      <c r="C593" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D593" s="7"/>
+      <c r="E593" s="7"/>
+      <c r="F593" s="7"/>
+      <c r="G593" s="7"/>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A594" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+      <c r="C594" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D594" s="7"/>
+      <c r="E594" s="7"/>
+      <c r="F594" s="7"/>
+      <c r="G594" s="7"/>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A595" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="B595">
+        <v>1</v>
+      </c>
+      <c r="C595" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D595" s="7"/>
+      <c r="E595" s="7"/>
+      <c r="F595" s="7"/>
+      <c r="G595" s="7"/>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A596" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B596">
+        <v>1</v>
+      </c>
+      <c r="C596" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D596" s="7"/>
+      <c r="E596" s="7"/>
+      <c r="F596" s="7"/>
+      <c r="G596" s="7"/>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A597" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="B597">
+        <v>1</v>
+      </c>
+      <c r="C597" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D597" s="7"/>
+      <c r="E597" s="7"/>
+      <c r="F597" s="7"/>
+      <c r="G597" s="7"/>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A598" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="B598">
+        <v>1</v>
+      </c>
+      <c r="C598" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D598" s="7"/>
+      <c r="E598" s="7"/>
+      <c r="F598" s="7"/>
+      <c r="G598" s="7"/>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A599" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="B599">
+        <v>1</v>
+      </c>
+      <c r="C599" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D599" s="7"/>
+      <c r="E599" s="7"/>
+      <c r="F599" s="7"/>
+      <c r="G599" s="7"/>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A600" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="B600">
+        <v>1</v>
+      </c>
+      <c r="C600" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D600" s="7"/>
+      <c r="E600" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F600" s="7"/>
+      <c r="G600" s="7"/>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A601" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B601">
+        <v>1</v>
+      </c>
+      <c r="C601" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D601" s="7"/>
+      <c r="E601" s="7"/>
+      <c r="F601" s="7"/>
+      <c r="G601" s="7"/>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A602" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="B602">
+        <v>1</v>
+      </c>
+      <c r="C602" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D602" s="7"/>
+      <c r="E602" s="7"/>
+      <c r="F602" s="7"/>
+      <c r="G602" s="7"/>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A603" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="B603">
+        <v>1</v>
+      </c>
+      <c r="C603" s="7"/>
+      <c r="D603" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="E603" s="7"/>
+      <c r="F603" s="7"/>
+      <c r="G603" s="7"/>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A604" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B604">
+        <v>1</v>
+      </c>
+      <c r="C604" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D604" s="7"/>
+      <c r="E604" s="7"/>
+      <c r="F604" s="7"/>
+      <c r="G604" s="7"/>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A605" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="B605">
+        <v>1</v>
+      </c>
+      <c r="C605" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D605" s="7"/>
+      <c r="E605" s="7"/>
+      <c r="F605" s="7"/>
+      <c r="G605" s="7"/>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A606" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B606">
+        <v>1</v>
+      </c>
+      <c r="C606" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D606" s="7"/>
+      <c r="E606" s="7"/>
+      <c r="F606" s="7"/>
+      <c r="G606" s="7"/>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A607" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="B607">
+        <v>1</v>
+      </c>
+      <c r="C607" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D607" s="7"/>
+      <c r="E607" s="7"/>
+      <c r="F607" s="7"/>
+      <c r="G607" s="7"/>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A608" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="B608">
+        <v>1</v>
+      </c>
+      <c r="C608" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D608" s="7"/>
+      <c r="E608" s="7"/>
+      <c r="F608" s="7"/>
+      <c r="G608" s="7"/>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A609" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="B609">
+        <v>1</v>
+      </c>
+      <c r="C609" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D609" s="7"/>
+      <c r="E609" s="7"/>
+      <c r="F609" s="7"/>
+      <c r="G609" s="7"/>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A610" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B610">
+        <v>1</v>
+      </c>
+      <c r="C610" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D610" s="7"/>
+      <c r="E610" s="7"/>
+      <c r="F610" s="7"/>
+      <c r="G610" s="7"/>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A611" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="B611">
+        <v>1</v>
+      </c>
+      <c r="C611" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D611" s="7"/>
+      <c r="E611" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F611" s="7"/>
+      <c r="G611" s="7"/>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A612" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="B612">
+        <v>1</v>
+      </c>
+      <c r="C612" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D612" s="7"/>
+      <c r="E612" s="7"/>
+      <c r="F612" s="7"/>
+      <c r="G612" s="7"/>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A613" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="B613">
+        <v>1</v>
+      </c>
+      <c r="C613" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D613" s="7"/>
+      <c r="E613" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F613" s="7"/>
+      <c r="G613" s="7"/>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A614" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B614">
+        <v>1</v>
+      </c>
+      <c r="C614" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D614" s="7"/>
+      <c r="E614" s="7"/>
+      <c r="F614" s="7"/>
+      <c r="G614" s="7"/>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A615" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B615">
+        <v>1</v>
+      </c>
+      <c r="C615" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D615" s="7"/>
+      <c r="E615" s="7"/>
+      <c r="F615" s="7"/>
+      <c r="G615" s="7"/>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A616" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="B616">
+        <v>1</v>
+      </c>
+      <c r="C616" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D616" s="7"/>
+      <c r="E616" s="7"/>
+      <c r="F616" s="7"/>
+      <c r="G616" s="7"/>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A617" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="B617">
+        <v>1</v>
+      </c>
+      <c r="C617" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D617" s="7"/>
+      <c r="E617" s="7"/>
+      <c r="F617" s="7"/>
+      <c r="G617" s="7"/>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A618" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="B618">
+        <v>1</v>
+      </c>
+      <c r="C618" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D618" s="7"/>
+      <c r="E618" s="7"/>
+      <c r="F618" s="7"/>
+      <c r="G618" s="7"/>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A619" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="B619">
+        <v>1</v>
+      </c>
+      <c r="C619" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D619" s="7"/>
+      <c r="E619" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F619" s="7"/>
+      <c r="G619" s="7"/>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A620" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="B620">
+        <v>1</v>
+      </c>
+      <c r="C620" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D620" s="7"/>
+      <c r="E620" s="7"/>
+      <c r="F620" s="7"/>
+      <c r="G620" s="7"/>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A621" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="B621">
+        <v>1</v>
+      </c>
+      <c r="C621" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D621" s="7"/>
+      <c r="E621" s="7"/>
+      <c r="F621" s="7"/>
+      <c r="G621" s="7"/>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A622" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="B622">
+        <v>1</v>
+      </c>
+      <c r="C622" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D622" s="7"/>
+      <c r="E622" s="7"/>
+      <c r="F622" s="7"/>
+      <c r="G622" s="7"/>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A623" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="B623">
+        <v>1</v>
+      </c>
+      <c r="C623" s="7"/>
+      <c r="D623" s="7"/>
+      <c r="E623" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F623" s="7"/>
+      <c r="G623" s="7"/>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A624" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="B624">
+        <v>1</v>
+      </c>
+      <c r="C624" s="7"/>
+      <c r="D624" s="7"/>
+      <c r="E624" s="7"/>
+      <c r="F624" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="G624" s="7"/>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A625" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="B625">
+        <v>1</v>
+      </c>
+      <c r="C625" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D625" s="7"/>
+      <c r="E625" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F625" s="7"/>
+      <c r="G625" s="7"/>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A626" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B626">
+        <v>1</v>
+      </c>
+      <c r="C626" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D626" s="7"/>
+      <c r="E626" s="7"/>
+      <c r="F626" s="7"/>
+      <c r="G626" s="7"/>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A627" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="B627">
+        <v>1</v>
+      </c>
+      <c r="C627" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D627" s="7"/>
+      <c r="E627" s="7"/>
+      <c r="F627" s="7"/>
+      <c r="G627" s="7"/>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A628" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="B628">
+        <v>1</v>
+      </c>
+      <c r="C628" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D628" s="7"/>
+      <c r="E628" s="7"/>
+      <c r="F628" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="G628" s="7"/>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A629" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="B629">
+        <v>1</v>
+      </c>
+      <c r="C629" s="7"/>
+      <c r="D629" s="7"/>
+      <c r="E629" s="7"/>
+      <c r="F629" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="G629" s="7"/>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A630" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="B630">
+        <v>1</v>
+      </c>
+      <c r="C630" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D630" s="7"/>
+      <c r="E630" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F630" s="7"/>
+      <c r="G630" s="7"/>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A631" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="B631">
+        <v>1</v>
+      </c>
+      <c r="C631" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D631" s="7"/>
+      <c r="E631" s="7"/>
+      <c r="F631" s="7"/>
+      <c r="G631" s="7"/>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A632" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="B632">
+        <v>1</v>
+      </c>
+      <c r="C632" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D632" s="7"/>
+      <c r="E632" s="7"/>
+      <c r="F632" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="G632" s="7"/>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A633" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="B633">
+        <v>1</v>
+      </c>
+      <c r="C633" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D633" s="7"/>
+      <c r="E633" s="7"/>
+      <c r="F633" s="7"/>
+      <c r="G633" s="7"/>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A634" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B634">
+        <v>1</v>
+      </c>
+      <c r="C634" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D634" s="7"/>
+      <c r="E634" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F634" s="7"/>
+      <c r="G634" s="7"/>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A635" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="B635">
+        <v>1</v>
+      </c>
+      <c r="C635" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D635" s="7"/>
+      <c r="E635" s="7"/>
+      <c r="F635" s="7"/>
+      <c r="G635" s="7"/>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A636" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="B636">
+        <v>1</v>
+      </c>
+      <c r="C636" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D636" s="7"/>
+      <c r="E636" s="7"/>
+      <c r="F636" s="7"/>
+      <c r="G636" s="7"/>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A637" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="B637">
+        <v>1</v>
+      </c>
+      <c r="C637" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D637" s="7"/>
+      <c r="E637" s="7"/>
+      <c r="F637" s="7"/>
+      <c r="G637" s="7"/>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A638" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="B638">
+        <v>1</v>
+      </c>
+      <c r="C638" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D638" s="7"/>
+      <c r="E638" s="7"/>
+      <c r="F638" s="7"/>
+      <c r="G638" s="7"/>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A639" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="B639">
+        <v>1</v>
+      </c>
+      <c r="C639" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D639" s="7"/>
+      <c r="E639" s="7"/>
+      <c r="F639" s="7"/>
+      <c r="G639" s="7"/>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A640" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B640">
+        <v>1</v>
+      </c>
+      <c r="C640" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D640" s="7"/>
+      <c r="E640" s="7"/>
+      <c r="F640" s="7"/>
+      <c r="G640" s="7"/>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A641" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="B641">
+        <v>1</v>
+      </c>
+      <c r="C641" s="7"/>
+      <c r="D641" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="E641" s="7"/>
+      <c r="F641" s="7"/>
+      <c r="G641" s="7"/>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A642" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="B642">
+        <v>1</v>
+      </c>
+      <c r="C642" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D642" s="7"/>
+      <c r="E642" s="7"/>
+      <c r="F642" s="7"/>
+      <c r="G642" s="7"/>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A643" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="B643">
+        <v>1</v>
+      </c>
+      <c r="C643" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D643" s="7"/>
+      <c r="E643" s="7"/>
+      <c r="F643" s="7"/>
+      <c r="G643" s="7"/>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A644" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="B644">
+        <v>1</v>
+      </c>
+      <c r="C644" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D644" s="7"/>
+      <c r="E644" s="7"/>
+      <c r="F644" s="7"/>
+      <c r="G644" s="7"/>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A645" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="B645">
+        <v>1</v>
+      </c>
+      <c r="C645" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D645" s="7"/>
+      <c r="E645" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F645" s="7"/>
+      <c r="G645" s="7"/>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A646" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="B646">
+        <v>1</v>
+      </c>
+      <c r="C646" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D646" s="7"/>
+      <c r="E646" s="7"/>
+      <c r="F646" s="7"/>
+      <c r="G646" s="7"/>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A647" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="B647">
+        <v>1</v>
+      </c>
+      <c r="C647" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D647" s="7"/>
+      <c r="E647" s="7"/>
+      <c r="F647" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="G647" s="7"/>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A648" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="B648">
+        <v>1</v>
+      </c>
+      <c r="C648" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D648" s="7"/>
+      <c r="E648" s="7"/>
+      <c r="F648" s="7"/>
+      <c r="G648" s="7"/>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A649" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="B649">
+        <v>1</v>
+      </c>
+      <c r="C649" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D649" s="7"/>
+      <c r="E649" s="7"/>
+      <c r="F649" s="7"/>
+      <c r="G649" s="7"/>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A650" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="B650">
+        <v>1</v>
+      </c>
+      <c r="C650" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D650" s="7"/>
+      <c r="E650" s="7"/>
+      <c r="F650" s="7"/>
+      <c r="G650" s="7"/>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A651" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B651">
+        <v>1</v>
+      </c>
+      <c r="C651" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D651" s="7"/>
+      <c r="E651" s="7"/>
+      <c r="F651" s="7"/>
+      <c r="G651" s="7"/>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A652" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="B652">
+        <v>1</v>
+      </c>
+      <c r="C652" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D652" s="7"/>
+      <c r="E652" s="7"/>
+      <c r="F652" s="7"/>
+      <c r="G652" s="7"/>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A653" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="B653">
+        <v>1</v>
+      </c>
+      <c r="C653" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D653" s="7"/>
+      <c r="E653" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F653" s="7"/>
+      <c r="G653" s="7"/>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A654" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="B654">
+        <v>1</v>
+      </c>
+      <c r="C654" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D654" s="7"/>
+      <c r="E654" s="7"/>
+      <c r="F654" s="7"/>
+      <c r="G654" s="7"/>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A655" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="B655">
+        <v>1</v>
+      </c>
+      <c r="C655" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D655" s="7"/>
+      <c r="E655" s="7"/>
+      <c r="F655" s="7"/>
+      <c r="G655" s="7"/>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A656" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="B656">
+        <v>1</v>
+      </c>
+      <c r="C656" s="7"/>
+      <c r="D656" s="7"/>
+      <c r="E656" s="7"/>
+      <c r="F656" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="G656" s="7"/>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A657" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="B657">
+        <v>1</v>
+      </c>
+      <c r="C657" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D657" s="7"/>
+      <c r="E657" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F657" s="7"/>
+      <c r="G657" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F501">
@@ -10788,8 +13172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G456"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301:XFD456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15388,2386 +17772,1250 @@
       <c r="G300" s="7"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="B301">
-        <v>1</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A301" s="6"/>
+      <c r="C301" s="7"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
       <c r="G301" s="7"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="B302">
-        <v>1</v>
-      </c>
-      <c r="C302" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A302" s="6"/>
+      <c r="C302" s="7"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="B303">
-        <v>1</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A303" s="6"/>
+      <c r="C303" s="7"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
       <c r="G303" s="7"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="B304">
-        <v>1</v>
-      </c>
-      <c r="C304" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A304" s="6"/>
+      <c r="C304" s="7"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
       <c r="F304" s="7"/>
       <c r="G304" s="7"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="B305">
-        <v>1</v>
-      </c>
-      <c r="C305" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A305" s="6"/>
+      <c r="C305" s="7"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
       <c r="G305" s="7"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="B306">
-        <v>1</v>
-      </c>
-      <c r="C306" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A306" s="6"/>
+      <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
       <c r="G306" s="7"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="B307">
-        <v>1</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A307" s="6"/>
+      <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="B308">
-        <v>1</v>
-      </c>
-      <c r="C308" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A308" s="6"/>
+      <c r="C308" s="7"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
       <c r="G308" s="7"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="B309">
-        <v>1</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A309" s="6"/>
+      <c r="C309" s="7"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="B310">
-        <v>1</v>
-      </c>
-      <c r="C310" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A310" s="6"/>
+      <c r="C310" s="7"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="B311">
-        <v>1</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A311" s="6"/>
+      <c r="C311" s="7"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
       <c r="F311" s="7"/>
       <c r="G311" s="7"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="B312">
-        <v>1</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A312" s="6"/>
+      <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
       <c r="G312" s="7"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="B313">
-        <v>1</v>
-      </c>
-      <c r="C313" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A313" s="6"/>
+      <c r="C313" s="7"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="B314">
-        <v>1</v>
-      </c>
-      <c r="C314" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A314" s="6"/>
+      <c r="C314" s="7"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
-      <c r="F314" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="F314" s="7"/>
       <c r="G314" s="7"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="B315">
-        <v>1</v>
-      </c>
-      <c r="C315" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A315" s="6"/>
+      <c r="C315" s="7"/>
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
       <c r="G315" s="7"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="B316">
-        <v>1</v>
-      </c>
-      <c r="C316" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A316" s="6"/>
+      <c r="C316" s="7"/>
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="B317">
-        <v>1</v>
-      </c>
-      <c r="C317" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A317" s="6"/>
+      <c r="C317" s="7"/>
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
       <c r="G317" s="7"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="B318">
-        <v>1</v>
-      </c>
-      <c r="C318" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A318" s="6"/>
+      <c r="C318" s="7"/>
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="B319">
-        <v>1</v>
-      </c>
-      <c r="C319" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A319" s="6"/>
+      <c r="C319" s="7"/>
       <c r="D319" s="7"/>
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="B320">
-        <v>1</v>
-      </c>
-      <c r="C320" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A320" s="6"/>
+      <c r="C320" s="7"/>
       <c r="D320" s="7"/>
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
       <c r="G320" s="7"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="B321">
-        <v>1</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A321" s="6"/>
+      <c r="C321" s="7"/>
       <c r="D321" s="7"/>
       <c r="E321" s="7"/>
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="B322">
-        <v>1</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A322" s="6"/>
+      <c r="C322" s="7"/>
       <c r="D322" s="7"/>
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
       <c r="G322" s="7"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="B323">
-        <v>1</v>
-      </c>
-      <c r="C323" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A323" s="6"/>
+      <c r="C323" s="7"/>
       <c r="D323" s="7"/>
-      <c r="E323" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E323" s="7"/>
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="B324">
-        <v>1</v>
-      </c>
-      <c r="C324" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A324" s="6"/>
+      <c r="C324" s="7"/>
       <c r="D324" s="7"/>
-      <c r="E324" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E324" s="7"/>
       <c r="F324" s="7"/>
       <c r="G324" s="7"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="B325">
-        <v>1</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A325" s="6"/>
+      <c r="C325" s="7"/>
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
       <c r="G325" s="7"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="B326">
-        <v>1</v>
-      </c>
-      <c r="C326" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A326" s="6"/>
+      <c r="C326" s="7"/>
       <c r="D326" s="7"/>
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
       <c r="G326" s="7"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="6" t="s">
-        <v>797</v>
-      </c>
-      <c r="B327">
-        <v>1</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A327" s="6"/>
+      <c r="C327" s="7"/>
       <c r="D327" s="7"/>
-      <c r="E327" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E327" s="7"/>
       <c r="F327" s="7"/>
       <c r="G327" s="7"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="B328">
-        <v>1</v>
-      </c>
-      <c r="C328" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A328" s="6"/>
+      <c r="C328" s="7"/>
       <c r="D328" s="7"/>
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
       <c r="G328" s="7"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="B329">
-        <v>1</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A329" s="6"/>
+      <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
       <c r="G329" s="7"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="B330">
-        <v>1</v>
-      </c>
-      <c r="C330" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A330" s="6"/>
+      <c r="C330" s="7"/>
       <c r="D330" s="7"/>
-      <c r="E330" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E330" s="7"/>
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="B331">
-        <v>1</v>
-      </c>
-      <c r="C331" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A331" s="6"/>
+      <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
       <c r="G331" s="7"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="B332">
-        <v>1</v>
-      </c>
-      <c r="C332" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A332" s="6"/>
+      <c r="C332" s="7"/>
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
       <c r="G332" s="7"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="B333">
-        <v>1</v>
-      </c>
-      <c r="C333" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A333" s="6"/>
+      <c r="C333" s="7"/>
       <c r="D333" s="7"/>
       <c r="E333" s="7"/>
-      <c r="F333" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="F333" s="7"/>
       <c r="G333" s="7"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="B334">
-        <v>1</v>
-      </c>
-      <c r="C334" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A334" s="6"/>
+      <c r="C334" s="7"/>
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
       <c r="G334" s="7"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="B335">
-        <v>1</v>
-      </c>
-      <c r="C335" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A335" s="6"/>
+      <c r="C335" s="7"/>
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
       <c r="G335" s="7"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="B336">
-        <v>1</v>
-      </c>
-      <c r="C336" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A336" s="6"/>
+      <c r="C336" s="7"/>
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
       <c r="G336" s="7"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="B337">
-        <v>1</v>
-      </c>
-      <c r="C337" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A337" s="6"/>
+      <c r="C337" s="7"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="B338">
-        <v>1</v>
-      </c>
-      <c r="C338" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A338" s="6"/>
+      <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="B339">
-        <v>1</v>
-      </c>
-      <c r="C339" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A339" s="6"/>
+      <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="B340">
-        <v>1</v>
-      </c>
-      <c r="C340" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A340" s="6"/>
+      <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="B341">
-        <v>1</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A341" s="6"/>
+      <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="B342">
-        <v>1</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A342" s="6"/>
+      <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="B343">
-        <v>1</v>
-      </c>
-      <c r="C343" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A343" s="6"/>
+      <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="B344">
-        <v>1</v>
-      </c>
-      <c r="C344" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A344" s="6"/>
+      <c r="C344" s="7"/>
       <c r="D344" s="7"/>
-      <c r="E344" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E344" s="7"/>
       <c r="F344" s="7"/>
       <c r="G344" s="7"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="B345">
-        <v>1</v>
-      </c>
-      <c r="C345" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A345" s="6"/>
+      <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="B346">
-        <v>1</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A346" s="6"/>
+      <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="B347">
-        <v>1</v>
-      </c>
-      <c r="C347" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A347" s="6"/>
+      <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A348" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="B348">
-        <v>1</v>
-      </c>
-      <c r="C348" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A348" s="6"/>
+      <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A349" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="B349">
-        <v>1</v>
-      </c>
-      <c r="C349" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A349" s="6"/>
+      <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
       <c r="G349" s="7"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A350" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="B350">
-        <v>1</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A350" s="6"/>
+      <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="B351">
-        <v>1</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A351" s="6"/>
+      <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
       <c r="G351" s="7"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="B352">
-        <v>1</v>
-      </c>
-      <c r="C352" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A352" s="6"/>
+      <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
       <c r="G352" s="7"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="B353">
-        <v>1</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A353" s="6"/>
+      <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="B354">
-        <v>1</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A354" s="6"/>
+      <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
       <c r="F354" s="7"/>
       <c r="G354" s="7"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="B355">
-        <v>1</v>
-      </c>
-      <c r="C355" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A355" s="6"/>
+      <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
       <c r="G355" s="7"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="B356">
-        <v>1</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A356" s="6"/>
+      <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
       <c r="G356" s="7"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="B357">
-        <v>1</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A357" s="6"/>
+      <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
       <c r="F357" s="7"/>
       <c r="G357" s="7"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="B358">
-        <v>1</v>
-      </c>
-      <c r="C358" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A358" s="6"/>
+      <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
       <c r="G358" s="7"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="B359">
-        <v>1</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A359" s="6"/>
+      <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="B360">
-        <v>1</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A360" s="6"/>
+      <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="B361">
-        <v>1</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A361" s="6"/>
+      <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
       <c r="G361" s="7"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="B362">
-        <v>1</v>
-      </c>
-      <c r="C362" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A362" s="6"/>
+      <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
       <c r="G362" s="7"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="B363">
-        <v>1</v>
-      </c>
-      <c r="C363" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A363" s="6"/>
+      <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
       <c r="G363" s="7"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="B364">
-        <v>1</v>
-      </c>
-      <c r="C364" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A364" s="6"/>
+      <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
       <c r="G364" s="7"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="B365">
-        <v>1</v>
-      </c>
-      <c r="C365" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A365" s="6"/>
+      <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
       <c r="G365" s="7"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A366" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="B366">
-        <v>1</v>
-      </c>
-      <c r="C366" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A366" s="6"/>
+      <c r="C366" s="7"/>
       <c r="D366" s="7"/>
-      <c r="E366" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E366" s="7"/>
       <c r="F366" s="7"/>
       <c r="G366" s="7"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="B367">
-        <v>1</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A367" s="6"/>
+      <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
       <c r="G367" s="7"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="B368">
-        <v>1</v>
-      </c>
-      <c r="C368" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A368" s="6"/>
+      <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
       <c r="G368" s="7"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="B369">
-        <v>1</v>
-      </c>
-      <c r="C369" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A369" s="6"/>
+      <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
       <c r="G369" s="7"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="B370">
-        <v>1</v>
-      </c>
-      <c r="C370" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A370" s="6"/>
+      <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
       <c r="G370" s="7"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="B371">
-        <v>1</v>
-      </c>
+      <c r="A371" s="6"/>
       <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
-      <c r="F371" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="F371" s="7"/>
       <c r="G371" s="7"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="B372">
-        <v>1</v>
-      </c>
-      <c r="C372" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A372" s="6"/>
+      <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
       <c r="G372" s="7"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="B373">
-        <v>1</v>
-      </c>
-      <c r="C373" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A373" s="6"/>
+      <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
       <c r="G373" s="7"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="B374">
-        <v>1</v>
-      </c>
-      <c r="C374" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A374" s="6"/>
+      <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="B375">
-        <v>1</v>
-      </c>
-      <c r="C375" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A375" s="6"/>
+      <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
       <c r="G375" s="7"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="B376">
-        <v>1</v>
-      </c>
-      <c r="C376" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A376" s="6"/>
+      <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
       <c r="G376" s="7"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="B377">
-        <v>1</v>
-      </c>
-      <c r="C377" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A377" s="6"/>
+      <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
       <c r="G377" s="7"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="6" t="s">
-        <v>863</v>
-      </c>
-      <c r="B378">
-        <v>1</v>
-      </c>
-      <c r="C378" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A378" s="6"/>
+      <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
       <c r="G378" s="7"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="B379">
-        <v>1</v>
-      </c>
-      <c r="C379" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A379" s="6"/>
+      <c r="C379" s="7"/>
       <c r="D379" s="7"/>
-      <c r="E379" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E379" s="7"/>
       <c r="F379" s="7"/>
       <c r="G379" s="7"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="B380">
-        <v>1</v>
-      </c>
-      <c r="C380" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A380" s="6"/>
+      <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
       <c r="G380" s="7"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="B381">
-        <v>1</v>
-      </c>
-      <c r="C381" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A381" s="6"/>
+      <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
       <c r="F381" s="7"/>
       <c r="G381" s="7"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382" s="6" t="s">
-        <v>868</v>
-      </c>
-      <c r="B382">
-        <v>1</v>
-      </c>
-      <c r="C382" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A382" s="6"/>
+      <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
       <c r="G382" s="7"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B383">
-        <v>1</v>
-      </c>
-      <c r="C383" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A383" s="6"/>
+      <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
       <c r="G383" s="7"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="B384">
-        <v>1</v>
-      </c>
-      <c r="C384" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A384" s="6"/>
+      <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
       <c r="G384" s="7"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="B385">
-        <v>1</v>
-      </c>
-      <c r="C385" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A385" s="6"/>
+      <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
       <c r="G385" s="7"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="B386">
-        <v>1</v>
-      </c>
-      <c r="C386" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A386" s="6"/>
+      <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
       <c r="G386" s="7"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="B387">
-        <v>1</v>
-      </c>
-      <c r="C387" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A387" s="6"/>
+      <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
       <c r="G387" s="7"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A388" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="B388">
-        <v>1</v>
-      </c>
+      <c r="A388" s="6"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
-      <c r="F388" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="F388" s="7"/>
       <c r="G388" s="7"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A389" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="B389">
-        <v>1</v>
-      </c>
-      <c r="C389" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A389" s="6"/>
+      <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
       <c r="G389" s="7"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A390" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="B390">
-        <v>1</v>
-      </c>
-      <c r="C390" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A390" s="6"/>
+      <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
       <c r="G390" s="7"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A391" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="B391">
-        <v>1</v>
-      </c>
-      <c r="C391" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A391" s="6"/>
+      <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
       <c r="G391" s="7"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="B392">
-        <v>1</v>
-      </c>
-      <c r="C392" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A392" s="6"/>
+      <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
       <c r="G392" s="7"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="B393">
-        <v>1</v>
-      </c>
-      <c r="C393" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A393" s="6"/>
+      <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
       <c r="F393" s="7"/>
       <c r="G393" s="7"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A394" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="B394">
-        <v>1</v>
-      </c>
-      <c r="C394" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A394" s="6"/>
+      <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
       <c r="G394" s="7"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A395" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B395">
-        <v>1</v>
-      </c>
-      <c r="C395" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A395" s="6"/>
+      <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
       <c r="G395" s="7"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A396" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="B396">
-        <v>1</v>
-      </c>
-      <c r="C396" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A396" s="6"/>
+      <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
       <c r="F396" s="7"/>
       <c r="G396" s="7"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A397" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="B397">
-        <v>1</v>
-      </c>
-      <c r="C397" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A397" s="6"/>
+      <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
       <c r="F397" s="7"/>
       <c r="G397" s="7"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A398" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="B398">
-        <v>1</v>
-      </c>
-      <c r="C398" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A398" s="6"/>
+      <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A399" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="B399">
-        <v>1</v>
-      </c>
-      <c r="C399" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A399" s="6"/>
+      <c r="C399" s="7"/>
       <c r="D399" s="7"/>
-      <c r="E399" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E399" s="7"/>
       <c r="F399" s="7"/>
       <c r="G399" s="7"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="B400">
-        <v>1</v>
-      </c>
-      <c r="C400" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A400" s="6"/>
+      <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
       <c r="F400" s="7"/>
       <c r="G400" s="7"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="B401">
-        <v>1</v>
-      </c>
-      <c r="C401" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A401" s="6"/>
+      <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
       <c r="F401" s="7"/>
       <c r="G401" s="7"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="B402">
-        <v>1</v>
-      </c>
+      <c r="A402" s="6"/>
       <c r="C402" s="7"/>
-      <c r="D402" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="D402" s="7"/>
       <c r="E402" s="7"/>
       <c r="F402" s="7"/>
       <c r="G402" s="7"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A403" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="B403">
-        <v>1</v>
-      </c>
-      <c r="C403" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A403" s="6"/>
+      <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
       <c r="F403" s="7"/>
       <c r="G403" s="7"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="B404">
-        <v>1</v>
-      </c>
-      <c r="C404" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A404" s="6"/>
+      <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
       <c r="F404" s="7"/>
       <c r="G404" s="7"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="B405">
-        <v>1</v>
-      </c>
-      <c r="C405" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A405" s="6"/>
+      <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
       <c r="F405" s="7"/>
       <c r="G405" s="7"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="B406">
-        <v>1</v>
-      </c>
-      <c r="C406" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A406" s="6"/>
+      <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
       <c r="F406" s="7"/>
       <c r="G406" s="7"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="B407">
-        <v>1</v>
-      </c>
-      <c r="C407" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A407" s="6"/>
+      <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
       <c r="F407" s="7"/>
       <c r="G407" s="7"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A408" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="B408">
-        <v>1</v>
-      </c>
-      <c r="C408" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A408" s="6"/>
+      <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
       <c r="F408" s="7"/>
       <c r="G408" s="7"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="B409">
-        <v>1</v>
-      </c>
-      <c r="C409" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A409" s="6"/>
+      <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
       <c r="F409" s="7"/>
       <c r="G409" s="7"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="B410">
-        <v>1</v>
-      </c>
-      <c r="C410" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A410" s="6"/>
+      <c r="C410" s="7"/>
       <c r="D410" s="7"/>
-      <c r="E410" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E410" s="7"/>
       <c r="F410" s="7"/>
       <c r="G410" s="7"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A411" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="B411">
-        <v>1</v>
-      </c>
-      <c r="C411" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A411" s="6"/>
+      <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
       <c r="F411" s="7"/>
       <c r="G411" s="7"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="B412">
-        <v>1</v>
-      </c>
-      <c r="C412" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A412" s="6"/>
+      <c r="C412" s="7"/>
       <c r="D412" s="7"/>
-      <c r="E412" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E412" s="7"/>
       <c r="F412" s="7"/>
       <c r="G412" s="7"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B413">
-        <v>1</v>
-      </c>
-      <c r="C413" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A413" s="6"/>
+      <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
       <c r="F413" s="7"/>
       <c r="G413" s="7"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="B414">
-        <v>1</v>
-      </c>
-      <c r="C414" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A414" s="6"/>
+      <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
       <c r="F414" s="7"/>
       <c r="G414" s="7"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="6" t="s">
-        <v>907</v>
-      </c>
-      <c r="B415">
-        <v>1</v>
-      </c>
-      <c r="C415" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A415" s="6"/>
+      <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
       <c r="F415" s="7"/>
       <c r="G415" s="7"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="B416">
-        <v>1</v>
-      </c>
-      <c r="C416" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A416" s="6"/>
+      <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
       <c r="F416" s="7"/>
       <c r="G416" s="7"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="B417">
-        <v>1</v>
-      </c>
-      <c r="C417" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A417" s="6"/>
+      <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
       <c r="F417" s="7"/>
       <c r="G417" s="7"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="B418">
-        <v>1</v>
-      </c>
-      <c r="C418" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A418" s="6"/>
+      <c r="C418" s="7"/>
       <c r="D418" s="7"/>
-      <c r="E418" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E418" s="7"/>
       <c r="F418" s="7"/>
       <c r="G418" s="7"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="B419">
-        <v>1</v>
-      </c>
-      <c r="C419" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A419" s="6"/>
+      <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
       <c r="F419" s="7"/>
       <c r="G419" s="7"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="B420">
-        <v>1</v>
-      </c>
-      <c r="C420" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A420" s="6"/>
+      <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
       <c r="F420" s="7"/>
       <c r="G420" s="7"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="6" t="s">
-        <v>914</v>
-      </c>
-      <c r="B421">
-        <v>1</v>
-      </c>
-      <c r="C421" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A421" s="6"/>
+      <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
       <c r="F421" s="7"/>
       <c r="G421" s="7"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="B422">
-        <v>1</v>
-      </c>
+      <c r="A422" s="6"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
-      <c r="E422" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E422" s="7"/>
       <c r="F422" s="7"/>
       <c r="G422" s="7"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="6" t="s">
-        <v>916</v>
-      </c>
-      <c r="B423">
-        <v>1</v>
-      </c>
+      <c r="A423" s="6"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
-      <c r="F423" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="F423" s="7"/>
       <c r="G423" s="7"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A424" s="6" t="s">
-        <v>917</v>
-      </c>
-      <c r="B424">
-        <v>1</v>
-      </c>
-      <c r="C424" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A424" s="6"/>
+      <c r="C424" s="7"/>
       <c r="D424" s="7"/>
-      <c r="E424" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E424" s="7"/>
       <c r="F424" s="7"/>
       <c r="G424" s="7"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="B425">
-        <v>1</v>
-      </c>
-      <c r="C425" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A425" s="6"/>
+      <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
       <c r="F425" s="7"/>
       <c r="G425" s="7"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="6" t="s">
-        <v>921</v>
-      </c>
-      <c r="B426">
-        <v>1</v>
-      </c>
-      <c r="C426" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A426" s="6"/>
+      <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
       <c r="F426" s="7"/>
       <c r="G426" s="7"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="6" t="s">
-        <v>922</v>
-      </c>
-      <c r="B427">
-        <v>1</v>
-      </c>
-      <c r="C427" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A427" s="6"/>
+      <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
-      <c r="F427" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="F427" s="7"/>
       <c r="G427" s="7"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="6" t="s">
-        <v>923</v>
-      </c>
-      <c r="B428">
-        <v>1</v>
-      </c>
+      <c r="A428" s="6"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
-      <c r="F428" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="F428" s="7"/>
       <c r="G428" s="7"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A429" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="B429">
-        <v>1</v>
-      </c>
-      <c r="C429" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A429" s="6"/>
+      <c r="C429" s="7"/>
       <c r="D429" s="7"/>
-      <c r="E429" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E429" s="7"/>
       <c r="F429" s="7"/>
       <c r="G429" s="7"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A430" s="6" t="s">
-        <v>926</v>
-      </c>
-      <c r="B430">
-        <v>1</v>
-      </c>
-      <c r="C430" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A430" s="6"/>
+      <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
       <c r="F430" s="7"/>
       <c r="G430" s="7"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A431" s="6" t="s">
-        <v>929</v>
-      </c>
-      <c r="B431">
-        <v>1</v>
-      </c>
-      <c r="C431" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A431" s="6"/>
+      <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
-      <c r="F431" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="F431" s="7"/>
       <c r="G431" s="7"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A432" s="6" t="s">
-        <v>930</v>
-      </c>
-      <c r="B432">
-        <v>1</v>
-      </c>
-      <c r="C432" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A432" s="6"/>
+      <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
       <c r="F432" s="7"/>
       <c r="G432" s="7"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A433" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="B433">
-        <v>1</v>
-      </c>
-      <c r="C433" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A433" s="6"/>
+      <c r="C433" s="7"/>
       <c r="D433" s="7"/>
-      <c r="E433" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E433" s="7"/>
       <c r="F433" s="7"/>
       <c r="G433" s="7"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A434" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="B434">
-        <v>1</v>
-      </c>
-      <c r="C434" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A434" s="6"/>
+      <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
       <c r="F434" s="7"/>
       <c r="G434" s="7"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" s="6" t="s">
-        <v>934</v>
-      </c>
-      <c r="B435">
-        <v>1</v>
-      </c>
-      <c r="C435" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A435" s="6"/>
+      <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
       <c r="F435" s="7"/>
       <c r="G435" s="7"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="6" t="s">
-        <v>935</v>
-      </c>
-      <c r="B436">
-        <v>1</v>
-      </c>
-      <c r="C436" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A436" s="6"/>
+      <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
       <c r="F436" s="7"/>
       <c r="G436" s="7"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="B437">
-        <v>1</v>
-      </c>
-      <c r="C437" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A437" s="6"/>
+      <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
       <c r="F437" s="7"/>
       <c r="G437" s="7"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A438" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="B438">
-        <v>1</v>
-      </c>
-      <c r="C438" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A438" s="6"/>
+      <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
       <c r="F438" s="7"/>
       <c r="G438" s="7"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A439" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="B439">
-        <v>1</v>
-      </c>
-      <c r="C439" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A439" s="6"/>
+      <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
       <c r="F439" s="7"/>
       <c r="G439" s="7"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A440" s="6" t="s">
-        <v>939</v>
-      </c>
-      <c r="B440">
-        <v>1</v>
-      </c>
+      <c r="A440" s="6"/>
       <c r="C440" s="7"/>
-      <c r="D440" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="D440" s="7"/>
       <c r="E440" s="7"/>
       <c r="F440" s="7"/>
       <c r="G440" s="7"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="B441">
-        <v>1</v>
-      </c>
-      <c r="C441" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A441" s="6"/>
+      <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
       <c r="F441" s="7"/>
       <c r="G441" s="7"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="6" t="s">
-        <v>942</v>
-      </c>
-      <c r="B442">
-        <v>1</v>
-      </c>
-      <c r="C442" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A442" s="6"/>
+      <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
       <c r="F442" s="7"/>
       <c r="G442" s="7"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A443" s="6" t="s">
-        <v>943</v>
-      </c>
-      <c r="B443">
-        <v>1</v>
-      </c>
-      <c r="C443" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A443" s="6"/>
+      <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
       <c r="F443" s="7"/>
       <c r="G443" s="7"/>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A444" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="B444">
-        <v>1</v>
-      </c>
-      <c r="C444" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A444" s="6"/>
+      <c r="C444" s="7"/>
       <c r="D444" s="7"/>
-      <c r="E444" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E444" s="7"/>
       <c r="F444" s="7"/>
       <c r="G444" s="7"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A445" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="B445">
-        <v>1</v>
-      </c>
-      <c r="C445" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A445" s="6"/>
+      <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
       <c r="G445" s="7"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A446" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="B446">
-        <v>1</v>
-      </c>
-      <c r="C446" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A446" s="6"/>
+      <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
-      <c r="F446" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="F446" s="7"/>
       <c r="G446" s="7"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A447" s="6" t="s">
-        <v>947</v>
-      </c>
-      <c r="B447">
-        <v>1</v>
-      </c>
-      <c r="C447" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A447" s="6"/>
+      <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
       <c r="G447" s="7"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A448" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="B448">
-        <v>1</v>
-      </c>
-      <c r="C448" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A448" s="6"/>
+      <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
       <c r="G448" s="7"/>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A449" s="6" t="s">
-        <v>949</v>
-      </c>
-      <c r="B449">
-        <v>1</v>
-      </c>
-      <c r="C449" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A449" s="6"/>
+      <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
       <c r="G449" s="7"/>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A450" s="6" t="s">
-        <v>950</v>
-      </c>
-      <c r="B450">
-        <v>1</v>
-      </c>
-      <c r="C450" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A450" s="6"/>
+      <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
       <c r="G450" s="7"/>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A451" s="6" t="s">
-        <v>951</v>
-      </c>
-      <c r="B451">
-        <v>1</v>
-      </c>
-      <c r="C451" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A451" s="6"/>
+      <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
       <c r="G451" s="7"/>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A452" s="6" t="s">
-        <v>952</v>
-      </c>
-      <c r="B452">
-        <v>1</v>
-      </c>
-      <c r="C452" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A452" s="6"/>
+      <c r="C452" s="7"/>
       <c r="D452" s="7"/>
-      <c r="E452" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E452" s="7"/>
       <c r="F452" s="7"/>
       <c r="G452" s="7"/>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A453" s="6" t="s">
-        <v>953</v>
-      </c>
-      <c r="B453">
-        <v>1</v>
-      </c>
-      <c r="C453" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A453" s="6"/>
+      <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
       <c r="F453" s="7"/>
       <c r="G453" s="7"/>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A454" s="6" t="s">
-        <v>954</v>
-      </c>
-      <c r="B454">
-        <v>1</v>
-      </c>
-      <c r="C454" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A454" s="6"/>
+      <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
       <c r="F454" s="7"/>
       <c r="G454" s="7"/>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A455" s="6" t="s">
-        <v>955</v>
-      </c>
-      <c r="B455">
-        <v>1</v>
-      </c>
+      <c r="A455" s="6"/>
       <c r="C455" s="7"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
-      <c r="F455" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="F455" s="7"/>
       <c r="G455" s="7"/>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A456" s="6" t="s">
-        <v>956</v>
-      </c>
-      <c r="B456">
-        <v>1</v>
-      </c>
-      <c r="C456" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="A456" s="6"/>
+      <c r="C456" s="7"/>
       <c r="D456" s="7"/>
-      <c r="E456" s="7" t="s">
-        <v>959</v>
-      </c>
+      <c r="E456" s="7"/>
       <c r="F456" s="7"/>
       <c r="G456" s="7"/>
     </row>
@@ -17781,12 +19029,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17948,15 +19193,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{607A4054-761D-4B33-9320-7655D7D27F3D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3720EEAF-79EA-42EA-988F-212BD62A8AC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="48862766-63ef-4678-be2c-e63663596ac4"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17980,17 +19236,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3720EEAF-79EA-42EA-988F-212BD62A8AC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{607A4054-761D-4B33-9320-7655D7D27F3D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="48862766-63ef-4678-be2c-e63663596ac4"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>